--- a/backups/Scanner_Microbiology_Lab_2025-05-04T10-51-42.xlsx
+++ b/backups/Scanner_Microbiology_Lab_2025-05-04T10-51-42.xlsx
@@ -407,7 +407,7 @@
         <v>Number</v>
       </c>
       <c r="B1" t="str">
-        <v>Content</v>
+        <v>Student ID</v>
       </c>
       <c r="C1" t="str">
         <v>Location</v>
